--- a/DnaRepairSpreadsheetParser/test/exampleData/broadAssays/Broad Institute_nross.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/broadAssays/Broad Institute_nross.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="690" windowWidth="14940" windowHeight="8730"/>
@@ -32,12 +32,12 @@
     <definedName name="readout_type">'Assay Definition'!#REF!</definedName>
     <definedName name="species_name">'Assay Definition'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="283">
   <si>
     <t>Instructions:
 Fill out from left to right.  Watch for red errors, correct them before moving on to the next column</t>
@@ -829,18 +829,6 @@
     <t>|    |    |    |    |    purified protein</t>
   </si>
   <si>
-    <t>355nm</t>
-  </si>
-  <si>
-    <t>460nm</t>
-  </si>
-  <si>
-    <t>360nm</t>
-  </si>
-  <si>
-    <t>620nm</t>
-  </si>
-  <si>
     <t>|    |    |    |    cells/mL</t>
   </si>
   <si>
@@ -896,13 +884,16 @@
   </si>
   <si>
     <t>HRPanti-mouse seconday antibody</t>
+  </si>
+  <si>
+    <t>nanometer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1017,6 +1008,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1024,10 +1019,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1127,6 +1118,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1161,6 +1153,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1336,18 +1329,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BL96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2130" ySplit="1605" topLeftCell="A38" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81:A89"/>
-      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI3" sqref="BI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
@@ -1380,7 +1370,7 @@
     <col min="59" max="59" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="2" customFormat="1" ht="76.5" customHeight="1">
+    <row r="1" spans="1:64" s="2" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1420,77 +1410,77 @@
       <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26" t="s">
+      <c r="O1" s="28"/>
+      <c r="P1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
       <c r="U1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="26"/>
+      <c r="W1" s="28"/>
       <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="24" t="s">
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="25" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25" t="s">
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-    </row>
-    <row r="2" spans="1:64" s="3" customFormat="1" ht="25.5" customHeight="1">
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+    </row>
+    <row r="2" spans="1:64" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1668,8 +1658,11 @@
       <c r="BG2" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="3" spans="1:64" s="12" customFormat="1">
+      <c r="BI2" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>80</v>
       </c>
@@ -1843,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:64" s="12" customFormat="1">
+    <row r="4" spans="1:64" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>80</v>
       </c>
@@ -1878,7 +1871,7 @@
       <c r="BF4" s="16"/>
       <c r="BG4" s="10"/>
     </row>
-    <row r="5" spans="1:64" s="12" customFormat="1">
+    <row r="5" spans="1:64" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>80</v>
       </c>
@@ -1904,7 +1897,7 @@
       <c r="BF5" s="16"/>
       <c r="BG5" s="10"/>
     </row>
-    <row r="6" spans="1:64">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>91</v>
       </c>
@@ -2078,7 +2071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:64">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>91</v>
       </c>
@@ -2118,7 +2111,7 @@
       <c r="BE7"/>
       <c r="BF7" s="17"/>
     </row>
-    <row r="8" spans="1:64">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>91</v>
       </c>
@@ -2150,7 +2143,7 @@
       <c r="BE8"/>
       <c r="BF8" s="17"/>
     </row>
-    <row r="9" spans="1:64">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>97</v>
       </c>
@@ -2277,7 +2270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:64">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>97</v>
       </c>
@@ -2322,7 +2315,7 @@
       <c r="BE10"/>
       <c r="BF10" s="17"/>
     </row>
-    <row r="11" spans="1:64">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>97</v>
       </c>
@@ -2366,7 +2359,7 @@
       <c r="BE11"/>
       <c r="BF11" s="17"/>
     </row>
-    <row r="12" spans="1:64">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>98</v>
       </c>
@@ -2478,7 +2471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:64">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>98</v>
       </c>
@@ -2498,7 +2491,7 @@
       <c r="BE13"/>
       <c r="BF13" s="17"/>
     </row>
-    <row r="14" spans="1:64">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>98</v>
       </c>
@@ -2519,7 +2512,7 @@
       <c r="BE14"/>
       <c r="BF14" s="17"/>
     </row>
-    <row r="15" spans="1:64">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>105</v>
       </c>
@@ -2693,7 +2686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:64">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>105</v>
       </c>
@@ -2733,7 +2726,7 @@
       <c r="BE16"/>
       <c r="BF16" s="17"/>
     </row>
-    <row r="17" spans="1:64">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>105</v>
       </c>
@@ -2765,7 +2758,7 @@
       <c r="BE17"/>
       <c r="BF17" s="17"/>
     </row>
-    <row r="18" spans="1:64">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>106</v>
       </c>
@@ -2939,7 +2932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:64">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>106</v>
       </c>
@@ -2980,7 +2973,7 @@
       <c r="BE19"/>
       <c r="BF19" s="17"/>
     </row>
-    <row r="20" spans="1:64">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>106</v>
       </c>
@@ -3013,7 +3006,7 @@
       <c r="BE20"/>
       <c r="BF20" s="17"/>
     </row>
-    <row r="21" spans="1:64">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>109</v>
       </c>
@@ -3187,7 +3180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:64">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>109</v>
       </c>
@@ -3227,7 +3220,7 @@
       <c r="BE22"/>
       <c r="BF22" s="17"/>
     </row>
-    <row r="23" spans="1:64">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>109</v>
       </c>
@@ -3258,7 +3251,7 @@
       <c r="BE23"/>
       <c r="BF23" s="17"/>
     </row>
-    <row r="24" spans="1:64">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>112</v>
       </c>
@@ -3432,7 +3425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:64">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>112</v>
       </c>
@@ -3473,7 +3466,7 @@
       <c r="BE25"/>
       <c r="BF25" s="17"/>
     </row>
-    <row r="26" spans="1:64">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>112</v>
       </c>
@@ -3506,7 +3499,7 @@
       <c r="BE26"/>
       <c r="BF26" s="17"/>
     </row>
-    <row r="27" spans="1:64">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>115</v>
       </c>
@@ -3680,7 +3673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:64">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>115</v>
       </c>
@@ -3720,7 +3713,7 @@
       <c r="BE28"/>
       <c r="BF28" s="17"/>
     </row>
-    <row r="29" spans="1:64">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>115</v>
       </c>
@@ -3751,7 +3744,7 @@
       <c r="BE29"/>
       <c r="BF29" s="17"/>
     </row>
-    <row r="30" spans="1:64">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>118</v>
       </c>
@@ -3925,7 +3918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:64">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>118</v>
       </c>
@@ -3954,7 +3947,7 @@
       </c>
       <c r="BF31" s="7"/>
     </row>
-    <row r="32" spans="1:64">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>118</v>
       </c>
@@ -3981,7 +3974,7 @@
       </c>
       <c r="BF32" s="7"/>
     </row>
-    <row r="33" spans="1:64">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>120</v>
       </c>
@@ -4044,11 +4037,11 @@
       <c r="U33" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="V33" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="W33" s="12" t="s">
-        <v>266</v>
+      <c r="V33" s="12">
+        <v>360</v>
+      </c>
+      <c r="W33" s="12">
+        <v>620</v>
       </c>
       <c r="Y33" t="s">
         <v>197</v>
@@ -4160,7 +4153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:64">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>120</v>
       </c>
@@ -4196,7 +4189,7 @@
       <c r="BK34" s="6"/>
       <c r="BL34" s="6"/>
     </row>
-    <row r="35" spans="1:64">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>120</v>
       </c>
@@ -4231,7 +4224,7 @@
       <c r="BK35" s="6"/>
       <c r="BL35" s="6"/>
     </row>
-    <row r="36" spans="1:64">
+    <row r="36" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>120</v>
       </c>
@@ -4272,7 +4265,7 @@
       <c r="BK36" s="6"/>
       <c r="BL36" s="6"/>
     </row>
-    <row r="37" spans="1:64" ht="14.25">
+    <row r="37" spans="1:64" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>120</v>
       </c>
@@ -4307,7 +4300,7 @@
       <c r="BK37" s="6"/>
       <c r="BL37" s="6"/>
     </row>
-    <row r="38" spans="1:64" ht="14.25">
+    <row r="38" spans="1:64" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>120</v>
       </c>
@@ -4345,7 +4338,7 @@
       <c r="BK38" s="6"/>
       <c r="BL38" s="6"/>
     </row>
-    <row r="39" spans="1:64">
+    <row r="39" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>127</v>
       </c>
@@ -4363,13 +4356,13 @@
         <v>166</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G39" t="s">
         <v>189</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>227</v>
@@ -4378,10 +4371,10 @@
         <v>50</v>
       </c>
       <c r="K39" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M39" t="s">
         <v>177</v>
@@ -4465,7 +4458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:64">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>127</v>
       </c>
@@ -4480,7 +4473,7 @@
         <v>195</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J40">
         <v>100</v>
@@ -4493,7 +4486,7 @@
       </c>
       <c r="BF40" s="7"/>
     </row>
-    <row r="41" spans="1:64">
+    <row r="41" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>127</v>
       </c>
@@ -4511,7 +4504,7 @@
       <c r="I41" s="12"/>
       <c r="BF41" s="7"/>
     </row>
-    <row r="42" spans="1:64">
+    <row r="42" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>128</v>
       </c>
@@ -4685,7 +4678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:64">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>128</v>
       </c>
@@ -4716,7 +4709,7 @@
       </c>
       <c r="BF43" s="7"/>
     </row>
-    <row r="44" spans="1:64">
+    <row r="44" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>129</v>
       </c>
@@ -4890,7 +4883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:64">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>129</v>
       </c>
@@ -4926,7 +4919,7 @@
       </c>
       <c r="BF45" s="7"/>
     </row>
-    <row r="46" spans="1:64">
+    <row r="46" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>129</v>
       </c>
@@ -4949,7 +4942,7 @@
       </c>
       <c r="BF46" s="7"/>
     </row>
-    <row r="47" spans="1:64">
+    <row r="47" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>130</v>
       </c>
@@ -5123,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:64">
+    <row r="48" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>130</v>
       </c>
@@ -5150,7 +5143,7 @@
       </c>
       <c r="BF48" s="7"/>
     </row>
-    <row r="49" spans="1:64">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>131</v>
       </c>
@@ -5324,7 +5317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:64">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>131</v>
       </c>
@@ -5360,7 +5353,7 @@
       </c>
       <c r="BF50" s="7"/>
     </row>
-    <row r="51" spans="1:64">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>131</v>
       </c>
@@ -5386,7 +5379,7 @@
       </c>
       <c r="BF51" s="7"/>
     </row>
-    <row r="52" spans="1:64">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>132</v>
       </c>
@@ -5560,7 +5553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:64">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>132</v>
       </c>
@@ -5596,7 +5589,7 @@
       </c>
       <c r="BF53" s="7"/>
     </row>
-    <row r="54" spans="1:64">
+    <row r="54" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>132</v>
       </c>
@@ -5622,7 +5615,7 @@
       </c>
       <c r="BF54" s="7"/>
     </row>
-    <row r="55" spans="1:64">
+    <row r="55" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>133</v>
       </c>
@@ -5796,7 +5789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:64">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>133</v>
       </c>
@@ -5832,7 +5825,7 @@
       </c>
       <c r="BF56" s="7"/>
     </row>
-    <row r="57" spans="1:64">
+    <row r="57" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>133</v>
       </c>
@@ -5858,7 +5851,7 @@
       </c>
       <c r="BF57" s="7"/>
     </row>
-    <row r="58" spans="1:64">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>134</v>
       </c>
@@ -6032,7 +6025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:64">
+    <row r="59" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>134</v>
       </c>
@@ -6068,7 +6061,7 @@
       </c>
       <c r="BF59" s="7"/>
     </row>
-    <row r="60" spans="1:64">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>134</v>
       </c>
@@ -6094,7 +6087,7 @@
       </c>
       <c r="BF60" s="7"/>
     </row>
-    <row r="61" spans="1:64">
+    <row r="61" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>135</v>
       </c>
@@ -6268,7 +6261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:64">
+    <row r="62" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>135</v>
       </c>
@@ -6304,7 +6297,7 @@
       </c>
       <c r="BF62" s="7"/>
     </row>
-    <row r="63" spans="1:64">
+    <row r="63" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>135</v>
       </c>
@@ -6330,8 +6323,8 @@
       </c>
       <c r="BF63" s="7"/>
     </row>
-    <row r="64" spans="1:64">
-      <c r="A64" s="27">
+    <row r="64" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A64" s="24">
         <v>2458</v>
       </c>
       <c r="B64" t="str">
@@ -6504,7 +6497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:64">
+    <row r="65" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>136</v>
       </c>
@@ -6540,7 +6533,7 @@
       </c>
       <c r="BF65" s="7"/>
     </row>
-    <row r="66" spans="1:64">
+    <row r="66" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>136</v>
       </c>
@@ -6566,7 +6559,7 @@
       </c>
       <c r="BF66" s="7"/>
     </row>
-    <row r="67" spans="1:64">
+    <row r="67" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>137</v>
       </c>
@@ -6740,7 +6733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:64" ht="12" customHeight="1">
+    <row r="68" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>137</v>
       </c>
@@ -6775,7 +6768,7 @@
       </c>
       <c r="BF68" s="7"/>
     </row>
-    <row r="69" spans="1:64" ht="12" customHeight="1">
+    <row r="69" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>137</v>
       </c>
@@ -6801,7 +6794,7 @@
       </c>
       <c r="BF69" s="7"/>
     </row>
-    <row r="70" spans="1:64">
+    <row r="70" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>138</v>
       </c>
@@ -6975,7 +6968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:64">
+    <row r="71" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>138</v>
       </c>
@@ -7010,7 +7003,7 @@
       </c>
       <c r="BF71" s="7"/>
     </row>
-    <row r="72" spans="1:64">
+    <row r="72" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>138</v>
       </c>
@@ -7036,7 +7029,7 @@
       </c>
       <c r="BF72" s="7"/>
     </row>
-    <row r="73" spans="1:64">
+    <row r="73" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>139</v>
       </c>
@@ -7210,7 +7203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:64">
+    <row r="74" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>139</v>
       </c>
@@ -7245,7 +7238,7 @@
       </c>
       <c r="BF74" s="7"/>
     </row>
-    <row r="75" spans="1:64">
+    <row r="75" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>139</v>
       </c>
@@ -7271,7 +7264,7 @@
       </c>
       <c r="BF75" s="7"/>
     </row>
-    <row r="76" spans="1:64">
+    <row r="76" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>140</v>
       </c>
@@ -7445,7 +7438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:64">
+    <row r="77" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>140</v>
       </c>
@@ -7479,7 +7472,7 @@
       </c>
       <c r="BF77" s="7"/>
     </row>
-    <row r="78" spans="1:64">
+    <row r="78" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>140</v>
       </c>
@@ -7504,7 +7497,7 @@
       </c>
       <c r="BF78" s="7"/>
     </row>
-    <row r="79" spans="1:64">
+    <row r="79" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>141</v>
       </c>
@@ -7522,22 +7515,22 @@
         <v>168</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>190</v>
       </c>
       <c r="H79" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I79" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J79">
         <v>120000</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L79" t="s">
         <v>182</v>
@@ -7674,7 +7667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:64">
+    <row r="80" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>141</v>
       </c>
@@ -7705,7 +7698,7 @@
       <c r="AF80" s="6"/>
       <c r="BF80" s="7"/>
     </row>
-    <row r="81" spans="1:64" ht="14.25">
+    <row r="81" spans="1:64" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>146</v>
       </c>
@@ -7723,13 +7716,13 @@
         <v>168</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G81" s="12" t="s">
         <v>190</v>
       </c>
       <c r="H81" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I81" t="s">
         <v>229</v>
@@ -7738,8 +7731,8 @@
       <c r="M81" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="N81" s="28" t="s">
-        <v>285</v>
+      <c r="N81" s="25" t="s">
+        <v>281</v>
       </c>
       <c r="O81" t="s">
         <v>162</v>
@@ -7748,7 +7741,7 @@
         <v>188</v>
       </c>
       <c r="Q81" s="14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="R81" t="s">
         <v>160</v>
@@ -7871,7 +7864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:64" ht="14.25">
+    <row r="82" spans="1:64" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>146</v>
       </c>
@@ -7881,13 +7874,13 @@
       </c>
       <c r="F82" s="12"/>
       <c r="G82" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H82" t="s">
-        <v>281</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="I82" s="25" t="s">
+        <v>276</v>
       </c>
       <c r="Y82" t="s">
         <v>197</v>
@@ -7906,43 +7899,43 @@
       </c>
       <c r="BF82" s="7"/>
     </row>
-    <row r="83" spans="1:64" ht="14.25">
+    <row r="83" spans="1:64" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>146</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H83" t="s">
-        <v>281</v>
-      </c>
-      <c r="I83" s="28" t="s">
-        <v>283</v>
+        <v>277</v>
+      </c>
+      <c r="I83" s="25" t="s">
+        <v>279</v>
       </c>
       <c r="Z83" s="12"/>
       <c r="AE83" s="12"/>
       <c r="BF83" s="7"/>
     </row>
-    <row r="84" spans="1:64" ht="14.25">
+    <row r="84" spans="1:64" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>146</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H84" t="s">
+        <v>277</v>
+      </c>
+      <c r="I84" s="25" t="s">
         <v>281</v>
-      </c>
-      <c r="I84" s="28" t="s">
-        <v>285</v>
       </c>
       <c r="Z84" s="12"/>
       <c r="AE84" s="12"/>
       <c r="BF84" s="7"/>
     </row>
-    <row r="85" spans="1:64" ht="14.25">
+    <row r="85" spans="1:64" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>150</v>
       </c>
@@ -7960,13 +7953,13 @@
         <v>168</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G85" s="12" t="s">
         <v>190</v>
       </c>
       <c r="H85" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I85" t="s">
         <v>229</v>
@@ -7975,8 +7968,8 @@
       <c r="M85" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="N85" s="28" t="s">
-        <v>285</v>
+      <c r="N85" s="25" t="s">
+        <v>281</v>
       </c>
       <c r="O85" t="s">
         <v>162</v>
@@ -7985,7 +7978,7 @@
         <v>188</v>
       </c>
       <c r="Q85" s="14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="R85" t="s">
         <v>160</v>
@@ -8100,18 +8093,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:64" ht="14.25">
+    <row r="86" spans="1:64" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>150</v>
       </c>
       <c r="G86" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H86" t="s">
-        <v>281</v>
-      </c>
-      <c r="I86" s="28" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="I86" s="25" t="s">
+        <v>276</v>
       </c>
       <c r="AE86" s="12" t="s">
         <v>223</v>
@@ -8123,18 +8116,18 @@
       <c r="BE86"/>
       <c r="BF86" s="17"/>
     </row>
-    <row r="87" spans="1:64" ht="14.25">
+    <row r="87" spans="1:64" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>150</v>
       </c>
       <c r="G87" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H87" t="s">
-        <v>281</v>
-      </c>
-      <c r="I87" s="28" t="s">
-        <v>283</v>
+        <v>277</v>
+      </c>
+      <c r="I87" s="25" t="s">
+        <v>279</v>
       </c>
       <c r="AE87" s="12"/>
       <c r="BA87"/>
@@ -8144,18 +8137,18 @@
       <c r="BE87"/>
       <c r="BF87" s="17"/>
     </row>
-    <row r="88" spans="1:64" ht="14.25">
+    <row r="88" spans="1:64" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>150</v>
       </c>
       <c r="G88" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H88" t="s">
+        <v>277</v>
+      </c>
+      <c r="I88" s="25" t="s">
         <v>281</v>
-      </c>
-      <c r="I88" s="28" t="s">
-        <v>285</v>
       </c>
       <c r="AE88" s="12"/>
       <c r="BA88"/>
@@ -8165,7 +8158,7 @@
       <c r="BE88"/>
       <c r="BF88" s="17"/>
     </row>
-    <row r="89" spans="1:64">
+    <row r="89" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>153</v>
       </c>
@@ -8177,7 +8170,7 @@
         <v>156</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>168</v>
@@ -8198,7 +8191,7 @@
         <v>48.8</v>
       </c>
       <c r="K89" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M89" s="6" t="s">
         <v>177</v>
@@ -8336,19 +8329,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:64" ht="14.25">
+    <row r="90" spans="1:64" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>153</v>
       </c>
       <c r="E90" s="18"/>
       <c r="G90" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H90" t="s">
-        <v>281</v>
-      </c>
-      <c r="I90" s="28" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="I90" s="25" t="s">
+        <v>276</v>
       </c>
       <c r="Y90" t="s">
         <v>197</v>
@@ -8365,19 +8358,19 @@
       <c r="BE90"/>
       <c r="BF90" s="17"/>
     </row>
-    <row r="91" spans="1:64" ht="14.25">
+    <row r="91" spans="1:64" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>153</v>
       </c>
       <c r="E91" s="18"/>
       <c r="G91" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H91" t="s">
-        <v>281</v>
-      </c>
-      <c r="I91" s="28" t="s">
-        <v>283</v>
+        <v>277</v>
+      </c>
+      <c r="I91" s="25" t="s">
+        <v>279</v>
       </c>
       <c r="AE91" s="12" t="s">
         <v>223</v>
@@ -8389,7 +8382,7 @@
       <c r="BE91"/>
       <c r="BF91" s="17"/>
     </row>
-    <row r="92" spans="1:64">
+    <row r="92" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>154</v>
       </c>
@@ -8407,7 +8400,7 @@
         <v>166</v>
       </c>
       <c r="F92" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G92" t="s">
         <v>189</v>
@@ -8448,11 +8441,11 @@
       <c r="U92" t="s">
         <v>258</v>
       </c>
-      <c r="V92" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="W92" s="12" t="s">
-        <v>264</v>
+      <c r="V92" s="12">
+        <v>355</v>
+      </c>
+      <c r="W92" s="12">
+        <v>460</v>
       </c>
       <c r="Y92" t="s">
         <v>197</v>
@@ -8509,7 +8502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:64">
+    <row r="93" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>154</v>
       </c>
@@ -8538,7 +8531,7 @@
       <c r="BE93"/>
       <c r="BF93" s="17"/>
     </row>
-    <row r="94" spans="1:64">
+    <row r="94" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>154</v>
       </c>
@@ -8565,7 +8558,7 @@
       <c r="BE94"/>
       <c r="BF94" s="17"/>
     </row>
-    <row r="95" spans="1:64">
+    <row r="95" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>155</v>
       </c>
@@ -8574,7 +8567,7 @@
         <v/>
       </c>
       <c r="F95" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AD95" s="12" t="s">
         <v>224</v>
@@ -8609,7 +8602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:64">
+    <row r="96" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>155</v>
       </c>
@@ -8631,7 +8624,7 @@
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="Z1:AB1"/>
   </mergeCells>
-  <dataValidations count="21">
+  <dataValidations disablePrompts="1" count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I81 I93 I85 I3:I32 I42:I78 I34 I38 I40 I89">
       <formula1>cultured_cell_name</formula1>
     </dataValidation>
